--- a/logs/2024/This Other Eden - Paul Harding.xlsx
+++ b/logs/2024/This Other Eden - Paul Harding.xlsx
@@ -430,7 +430,7 @@
         <v>45288</v>
       </c>
       <c r="B1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45299</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45483</v>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45484</v>
       </c>
       <c r="B4" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45485</v>
       </c>
       <c r="B5" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45486</v>
       </c>
       <c r="B6" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45487</v>
       </c>
       <c r="B7" t="n">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
